--- a/output/SIZE/rebalance/rebalance_20240628.xlsx
+++ b/output/SIZE/rebalance/rebalance_20240628.xlsx
@@ -30816,13 +30816,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3297965142651588</v>
+        <v>0.3297941418507219</v>
       </c>
       <c r="C2" t="n">
         <v>0.3</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.02979651426515884</v>
+        <v>-0.02979414185072193</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -30837,13 +30837,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07317662496780675</v>
+        <v>0.07317247562839797</v>
       </c>
       <c r="C3" t="n">
         <v>0.07945197513151603</v>
       </c>
       <c r="D3" t="n">
-        <v>0.006275350163709281</v>
+        <v>0.006279499503118055</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -30858,13 +30858,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05919573490409701</v>
+        <v>0.05919340764002105</v>
       </c>
       <c r="C4" t="n">
         <v>0.0599641893830703</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0007684544789732864</v>
+        <v>0.0007707817430492522</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -30879,13 +30879,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03179975793392015</v>
+        <v>0.03180068020711426</v>
       </c>
       <c r="C5" t="n">
         <v>0.03227512195121951</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0004753640172993553</v>
+        <v>0.0004744417441052487</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -30900,13 +30900,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02967643280474079</v>
+        <v>0.02967644538870089</v>
       </c>
       <c r="C6" t="n">
         <v>0.03103889048302248</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001362457678281682</v>
+        <v>0.001362445094321582</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -30921,13 +30921,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02573922316396627</v>
+        <v>0.025738852782437</v>
       </c>
       <c r="C7" t="n">
         <v>0.02695632711621233</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001217103952246064</v>
+        <v>0.001217474333775333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -30942,13 +30942,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02527015092687353</v>
+        <v>0.02527065994388521</v>
       </c>
       <c r="C8" t="n">
         <v>0.02607307508369201</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0008029241568184783</v>
+        <v>0.0008024151398068023</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -30963,13 +30963,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02486276897401993</v>
+        <v>0.02486319199938416</v>
       </c>
       <c r="C9" t="n">
         <v>0.02560172166427547</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0007389526902555309</v>
+        <v>0.0007385296648913069</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -30984,13 +30984,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01992658742683894</v>
+        <v>0.01992697591801187</v>
       </c>
       <c r="C10" t="n">
         <v>0.02039621233859398</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0004696249117550344</v>
+        <v>0.0004692364205821087</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -31005,13 +31005,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02017107899171233</v>
+        <v>0.02017095546341864</v>
       </c>
       <c r="C11" t="n">
         <v>0.01982228598756576</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0003487930041465685</v>
+        <v>-0.0003486694758528842</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -31026,13 +31026,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01826650672495577</v>
+        <v>0.01826616040538696</v>
       </c>
       <c r="C12" t="n">
         <v>0.01868916307986609</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0004226563549103168</v>
+        <v>0.0004230026744791275</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -31047,13 +31047,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0160298072604647</v>
+        <v>0.01603028057321741</v>
       </c>
       <c r="C13" t="n">
         <v>0.01653164992826399</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0005018426677992904</v>
+        <v>0.0005013693550465805</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -31068,13 +31068,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01503785485725665</v>
+        <v>0.01503801464794964</v>
       </c>
       <c r="C14" t="n">
         <v>0.01558171209947394</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0005438572422172879</v>
+        <v>0.0005436974515242964</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -31089,13 +31089,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01192103066125431</v>
+        <v>0.01192045077818587</v>
       </c>
       <c r="C15" t="n">
         <v>0.01238240076518412</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0004613701039298135</v>
+        <v>0.0004619499869982519</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -31110,13 +31110,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01215608583826682</v>
+        <v>0.01215636028544304</v>
       </c>
       <c r="C16" t="n">
         <v>0.01237168818747011</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0002156023492032866</v>
+        <v>0.0002153279020270741</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -31131,13 +31131,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01157861630256448</v>
+        <v>0.01157899665153582</v>
       </c>
       <c r="C17" t="n">
         <v>0.01197692969870875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0003983133961442779</v>
+        <v>0.0003979330471729371</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -31152,13 +31152,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01052457160520796</v>
+        <v>0.01052517540412106</v>
       </c>
       <c r="C18" t="n">
         <v>0.01112019129603061</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0005956196908226477</v>
+        <v>0.0005950158919095418</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -31173,13 +31173,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01047800305300461</v>
+        <v>0.01047884567375513</v>
       </c>
       <c r="C19" t="n">
         <v>0.01089174557627929</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0004137425232746839</v>
+        <v>0.0004128999025241643</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -31194,13 +31194,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01026281295343099</v>
+        <v>0.01026293691026377</v>
       </c>
       <c r="C20" t="n">
         <v>0.01066945958871353</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0004066466352825402</v>
+        <v>0.000406522678449768</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -31215,13 +31215,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01017044988609432</v>
+        <v>0.01017058823377968</v>
       </c>
       <c r="C21" t="n">
         <v>0.0104712769010043</v>
       </c>
       <c r="D21" t="n">
-        <v>0.000300827014909983</v>
+        <v>0.0003006886672246231</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -31236,13 +31236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.009856167706605069</v>
+        <v>0.009856292828309111</v>
       </c>
       <c r="C22" t="n">
         <v>0.0102497943567671</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0003936266501620277</v>
+        <v>0.0003935015284579849</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -31257,13 +31257,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.009924206523345615</v>
+        <v>0.009924322919993983</v>
       </c>
       <c r="C23" t="n">
         <v>0.01024229555236729</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0003180890290216745</v>
+        <v>0.0003179726323733062</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -31278,13 +31278,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.00975756484579738</v>
+        <v>0.009757792217849811</v>
       </c>
       <c r="C24" t="n">
         <v>0.009906724055475848</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0001491592096784684</v>
+        <v>0.0001489318376260377</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -31299,13 +31299,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.009737455273104299</v>
+        <v>0.009737666247815311</v>
       </c>
       <c r="C25" t="n">
         <v>0.009875657580105212</v>
       </c>
       <c r="D25" t="n">
-        <v>0.000138202307000913</v>
+        <v>0.000137991332289901</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -31320,13 +31320,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.009373932558492141</v>
+        <v>0.009373944159778807</v>
       </c>
       <c r="C26" t="n">
         <v>0.009814328072692492</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0004403955142003504</v>
+        <v>0.0004403839129136847</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -31341,13 +31341,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.009453480288420957</v>
+        <v>0.00945393779638669</v>
       </c>
       <c r="C27" t="n">
         <v>0.009802812051649928</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0003493317632289709</v>
+        <v>0.0003488742552632384</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -31362,13 +31362,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.009401726963659389</v>
+        <v>0.009402078754672989</v>
       </c>
       <c r="C28" t="n">
         <v>0.009758087039693926</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0003563600760345363</v>
+        <v>0.0003560082850209371</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -31383,13 +31383,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.009340475773574677</v>
+        <v>0.009340562198103742</v>
       </c>
       <c r="C29" t="n">
         <v>0.009645872788139645</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0003053970145649679</v>
+        <v>0.0003053105900359034</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -31404,13 +31404,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.008739797602268402</v>
+        <v>0.008739976557236928</v>
       </c>
       <c r="C30" t="n">
         <v>0.009280306073648971</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0005405084713805686</v>
+        <v>0.0005403295164120425</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -31425,13 +31425,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.008118377323162672</v>
+        <v>0.008118450796185657</v>
       </c>
       <c r="C31" t="n">
         <v>0.008525872788139646</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0004074954649769744</v>
+        <v>0.0004074219919539893</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -31446,13 +31446,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.008103488792415544</v>
+        <v>0.008103435696960034</v>
       </c>
       <c r="C32" t="n">
         <v>0.008419014825442371</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0003155260330268278</v>
+        <v>0.0003155791284823375</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -31467,13 +31467,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.007796450856280729</v>
+        <v>0.007796759497062968</v>
       </c>
       <c r="C33" t="n">
         <v>0.008332510760401722</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0005360599041209935</v>
+        <v>0.0005357512633387546</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -31488,13 +31488,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.008051120199112248</v>
+        <v>0.008051305136888322</v>
       </c>
       <c r="C34" t="n">
         <v>0.0082717168818747</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0002205966827624525</v>
+        <v>0.0002204117449863784</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -31509,13 +31509,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.008241806564301773</v>
+        <v>0.008241873086722354</v>
       </c>
       <c r="C35" t="n">
         <v>0.008223510282161645</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.829628214012821e-05</v>
+        <v>-1.836280456070892e-05</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -31530,13 +31530,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.007847824192055295</v>
+        <v>0.007848256823706596</v>
       </c>
       <c r="C36" t="n">
         <v>0.008121205164992826</v>
       </c>
       <c r="D36" t="n">
-        <v>0.000273380972937531</v>
+        <v>0.0002729483412862305</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -31551,13 +31551,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.007562323638049067</v>
+        <v>0.007562553014191401</v>
       </c>
       <c r="C37" t="n">
         <v>0.007911238641798182</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0003489150037491147</v>
+        <v>0.0003486856276067804</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -31593,13 +31593,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.007434154211397241</v>
+        <v>0.007433545827835104</v>
       </c>
       <c r="C39" t="n">
         <v>0.007723500717360115</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0002893465059628742</v>
+        <v>0.0002899548895250112</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -31614,13 +31614,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.007376177002950863</v>
+        <v>0.007376463684872462</v>
       </c>
       <c r="C40" t="n">
         <v>0.007614768053562889</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0002385910506120265</v>
+        <v>0.0002383043686904271</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -31635,13 +31635,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.007037699257790823</v>
+        <v>0.007037263595970506</v>
       </c>
       <c r="C41" t="n">
         <v>0.007499875657580105</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0004621763997892814</v>
+        <v>0.0004626120616095988</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -31656,13 +31656,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.007193854467612655</v>
+        <v>0.007195024502195017</v>
       </c>
       <c r="C42" t="n">
         <v>0.007455150645624102</v>
       </c>
       <c r="D42" t="n">
-        <v>0.000261296178011447</v>
+        <v>0.0002601261434290849</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -31677,13 +31677,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.007188071211532106</v>
+        <v>0.007188240772434619</v>
       </c>
       <c r="C43" t="n">
         <v>0.007446848397895743</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0002587771863636372</v>
+        <v>0.000258607625461124</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -31698,13 +31698,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.007047020695318664</v>
+        <v>0.007047178549809352</v>
       </c>
       <c r="C44" t="n">
         <v>0.007352042085126733</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0003050213898080686</v>
+        <v>0.0003048635353173805</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -31719,13 +31719,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.006949828311283115</v>
+        <v>0.006950085171174487</v>
       </c>
       <c r="C45" t="n">
         <v>0.007254289813486369</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0003044615022032545</v>
+        <v>0.0003042046423118823</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -31740,13 +31740,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.006933375212393484</v>
+        <v>0.006933458857638275</v>
       </c>
       <c r="C46" t="n">
         <v>0.007099493065518891</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0001661178531254066</v>
+        <v>0.0001660342078806162</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -31782,13 +31782,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.006313964832778924</v>
+        <v>0.006313937388195879</v>
       </c>
       <c r="C48" t="n">
         <v>0.00690157819225251</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0005876133594735862</v>
+        <v>0.0005876408040566307</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -31803,13 +31803,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.006573786609463321</v>
+        <v>0.006573942443605742</v>
       </c>
       <c r="C49" t="n">
         <v>0.006854175035868006</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0002803884264046853</v>
+        <v>0.0002802325922622645</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -31824,13 +31824,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.00622077933311384</v>
+        <v>0.006220723369370863</v>
       </c>
       <c r="C50" t="n">
         <v>0.006663223338115733</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0004424440050018932</v>
+        <v>0.0004424999687448698</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -31866,13 +31866,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.005253125590296405</v>
+        <v>0.005253949061804662</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.005253125590296405</v>
+        <v>-0.005253949061804662</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -31887,13 +31887,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.005726872942649358</v>
+        <v>0.005726955830284989</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.005726872942649358</v>
+        <v>-0.005726955830284989</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -31908,13 +31908,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.005404477719138829</v>
+        <v>0.005404426827212017</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.005404477719138829</v>
+        <v>-0.005404426827212017</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>

--- a/output/SIZE/rebalance/rebalance_20240628.xlsx
+++ b/output/SIZE/rebalance/rebalance_20240628.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4.65%</t>
+          <t>4.71%</t>
         </is>
       </c>
     </row>
@@ -30816,13 +30816,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3297941418507219</v>
+        <v>0.3301419608738678</v>
       </c>
       <c r="C2" t="n">
         <v>0.3</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.02979414185072193</v>
+        <v>-0.03014196087386783</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -30837,13 +30837,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07317247562839797</v>
+        <v>0.07353330795628886</v>
       </c>
       <c r="C3" t="n">
         <v>0.07945197513151603</v>
       </c>
       <c r="D3" t="n">
-        <v>0.006279499503118055</v>
+        <v>0.005918667175227169</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -30858,13 +30858,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05919340764002105</v>
+        <v>0.05948427119065411</v>
       </c>
       <c r="C4" t="n">
         <v>0.0599641893830703</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0007707817430492522</v>
+        <v>0.0004799181924161899</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -30879,13 +30879,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03180068020711426</v>
+        <v>0.03089353054816996</v>
       </c>
       <c r="C5" t="n">
         <v>0.03227512195121951</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0004744417441052487</v>
+        <v>0.00138159140304955</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -30900,13 +30900,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02967644538870089</v>
+        <v>0.02982108389714825</v>
       </c>
       <c r="C6" t="n">
         <v>0.03103889048302248</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001362445094321582</v>
+        <v>0.001217806585874222</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -30921,13 +30921,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.025738852782437</v>
+        <v>0.02538678116508811</v>
       </c>
       <c r="C7" t="n">
         <v>0.02695632711621233</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001217474333775333</v>
+        <v>0.001569545951124227</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -30942,13 +30942,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02527065994388521</v>
+        <v>0.02539332458999285</v>
       </c>
       <c r="C8" t="n">
         <v>0.02607307508369201</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0008024151398068023</v>
+        <v>0.0006797504936991612</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -30963,13 +30963,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02486319199938416</v>
+        <v>0.02498395694549983</v>
       </c>
       <c r="C9" t="n">
         <v>0.02560172166427547</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0007385296648913069</v>
+        <v>0.0006177647187756326</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -30984,13 +30984,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01992697591801187</v>
+        <v>0.02002371509235759</v>
       </c>
       <c r="C10" t="n">
         <v>0.02039621233859398</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0004692364205821087</v>
+        <v>0.0003724972462363883</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -31005,13 +31005,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02017095546341864</v>
+        <v>0.02026939837633602</v>
       </c>
       <c r="C11" t="n">
         <v>0.01982228598756576</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0003486694758528842</v>
+        <v>-0.000447112388770262</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -31026,13 +31026,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01826616040538696</v>
+        <v>0.0183555427007288</v>
       </c>
       <c r="C12" t="n">
         <v>0.01868916307986609</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0004230026744791275</v>
+        <v>0.0003336203791372873</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -31047,13 +31047,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01603028057321741</v>
+        <v>0.01610794094811388</v>
       </c>
       <c r="C13" t="n">
         <v>0.01653164992826399</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0005013693550465805</v>
+        <v>0.0004237089801501122</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -31068,13 +31068,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01503801464794964</v>
+        <v>0.01511115349617593</v>
       </c>
       <c r="C14" t="n">
         <v>0.01558171209947394</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0005436974515242964</v>
+        <v>0.0004705586032980099</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -31089,13 +31089,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01192045077818587</v>
+        <v>0.01178636931961925</v>
       </c>
       <c r="C15" t="n">
         <v>0.01238240076518412</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0004619499869982519</v>
+        <v>0.0005960314455648718</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -31110,13 +31110,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01215636028544304</v>
+        <v>0.01221533794270517</v>
       </c>
       <c r="C16" t="n">
         <v>0.01237168818747011</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0002153279020270741</v>
+        <v>0.000156350244764937</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -31131,13 +31131,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01157899665153582</v>
+        <v>0.01163505366172259</v>
       </c>
       <c r="C17" t="n">
         <v>0.01197692969870875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0003979330471729371</v>
+        <v>0.000341876036986162</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -31152,13 +31152,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01052517540412106</v>
+        <v>0.01003402506068922</v>
       </c>
       <c r="C18" t="n">
         <v>0.01112019129603061</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0005950158919095418</v>
+        <v>0.001086166235341381</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -31173,13 +31173,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01047884567375513</v>
+        <v>0.01016428884523453</v>
       </c>
       <c r="C19" t="n">
         <v>0.01089174557627929</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0004128999025241643</v>
+        <v>0.0007274567310447642</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -31194,13 +31194,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01026293691026377</v>
+        <v>0.0103128367253127</v>
       </c>
       <c r="C20" t="n">
         <v>0.01066945958871353</v>
       </c>
       <c r="D20" t="n">
-        <v>0.000406522678449768</v>
+        <v>0.0003566228634008291</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -31215,13 +31215,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01017058823377968</v>
+        <v>0.01022002345499254</v>
       </c>
       <c r="C21" t="n">
         <v>0.0104712769010043</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0003006886672246231</v>
+        <v>0.0002512534460117673</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -31236,13 +31236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.009856292828309111</v>
+        <v>0.009904209377755106</v>
       </c>
       <c r="C22" t="n">
         <v>0.0102497943567671</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0003935015284579849</v>
+        <v>0.0003455849790119907</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -31257,13 +31257,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.009924322919993983</v>
+        <v>0.009972579834394302</v>
       </c>
       <c r="C23" t="n">
         <v>0.01024229555236729</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0003179726323733062</v>
+        <v>0.0002697157179729869</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -31278,13 +31278,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.009757792217849811</v>
+        <v>0.009805125899495037</v>
       </c>
       <c r="C24" t="n">
         <v>0.009906724055475848</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0001489318376260377</v>
+        <v>0.0001015981559808112</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -31299,13 +31299,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.009737666247815311</v>
+        <v>0.009784918307215947</v>
       </c>
       <c r="C25" t="n">
         <v>0.009875657580105212</v>
       </c>
       <c r="D25" t="n">
-        <v>0.000137991332289901</v>
+        <v>9.073927288926441e-05</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -31320,13 +31320,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.009373944159778807</v>
+        <v>0.009419623682949761</v>
       </c>
       <c r="C26" t="n">
         <v>0.009814328072692492</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0004403839129136847</v>
+        <v>0.0003947043897427303</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -31341,13 +31341,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.00945393779638669</v>
+        <v>0.009499559150384258</v>
       </c>
       <c r="C27" t="n">
         <v>0.009802812051649928</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0003488742552632384</v>
+        <v>0.0003032529012656701</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -31362,13 +31362,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.009402078754672989</v>
+        <v>0.009447553565689293</v>
       </c>
       <c r="C28" t="n">
         <v>0.009758087039693926</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0003560082850209371</v>
+        <v>0.0003105334740046324</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -31383,13 +31383,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.009340562198103742</v>
+        <v>0.009386003820464372</v>
       </c>
       <c r="C29" t="n">
         <v>0.009645872788139645</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0003053105900359034</v>
+        <v>0.0002598689676752731</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -31404,13 +31404,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.008739976557236928</v>
+        <v>0.008507947848025716</v>
       </c>
       <c r="C30" t="n">
         <v>0.009280306073648971</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0005403295164120425</v>
+        <v>0.0007723582256232552</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -31425,13 +31425,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.008118450796185657</v>
+        <v>0.008157948526214528</v>
       </c>
       <c r="C31" t="n">
         <v>0.008525872788139646</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0004074219919539893</v>
+        <v>0.0003679242619251174</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -31446,13 +31446,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.008103435696960034</v>
+        <v>0.008142987424675263</v>
       </c>
       <c r="C32" t="n">
         <v>0.008419014825442371</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0003155791284823375</v>
+        <v>0.0002760274007671086</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -31467,13 +31467,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.007796759497062968</v>
+        <v>0.00783445290122604</v>
       </c>
       <c r="C33" t="n">
         <v>0.008332510760401722</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0005357512633387546</v>
+        <v>0.0004980578591756817</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -31488,13 +31488,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.008051305136888322</v>
+        <v>0.007872595588181104</v>
       </c>
       <c r="C34" t="n">
         <v>0.0082717168818747</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0002204117449863784</v>
+        <v>0.000399121293693596</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -31509,17 +31509,17 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.008241873086722354</v>
+        <v>0.008082671013016367</v>
       </c>
       <c r="C35" t="n">
         <v>0.008223510282161645</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.836280456070892e-05</v>
+        <v>0.0001408392691452775</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -31530,13 +31530,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.007848256823706596</v>
+        <v>0.007886076644763202</v>
       </c>
       <c r="C36" t="n">
         <v>0.008121205164992826</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0002729483412862305</v>
+        <v>0.0002351285202296244</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -31551,13 +31551,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.007562553014191401</v>
+        <v>0.007599184482564312</v>
       </c>
       <c r="C37" t="n">
         <v>0.007911238641798182</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0003486856276067804</v>
+        <v>0.00031205415923387</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -31593,13 +31593,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.007433545827835104</v>
+        <v>0.007470390322889473</v>
       </c>
       <c r="C39" t="n">
         <v>0.007723500717360115</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0002899548895250112</v>
+        <v>0.0002531103944706419</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -31614,13 +31614,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.007376463684872462</v>
+        <v>0.007412130517589503</v>
       </c>
       <c r="C40" t="n">
         <v>0.007614768053562889</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0002383043686904271</v>
+        <v>0.0002026375359733866</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -31635,13 +31635,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.007037263595970506</v>
+        <v>0.007072002938842139</v>
       </c>
       <c r="C41" t="n">
         <v>0.007499875657580105</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0004626120616095988</v>
+        <v>0.0004278727187379651</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -31656,13 +31656,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.007195024502195017</v>
+        <v>0.006946773928215306</v>
       </c>
       <c r="C42" t="n">
         <v>0.007455150645624102</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0002601261434290849</v>
+        <v>0.0005083767174087961</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -31677,13 +31677,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.007188240772434619</v>
+        <v>0.007223107846827597</v>
       </c>
       <c r="C43" t="n">
         <v>0.007446848397895743</v>
       </c>
       <c r="D43" t="n">
-        <v>0.000258607625461124</v>
+        <v>0.000223740551068146</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -31698,13 +31698,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.007047178549809352</v>
+        <v>0.007081369811619227</v>
       </c>
       <c r="C44" t="n">
         <v>0.007352042085126733</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0003048635353173805</v>
+        <v>0.0002706722735075053</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -31719,13 +31719,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.006950085171174487</v>
+        <v>0.006983703685182861</v>
       </c>
       <c r="C45" t="n">
         <v>0.007254289813486369</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0003042046423118823</v>
+        <v>0.0002705861283035082</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -31740,13 +31740,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.006933458857638275</v>
+        <v>0.006967170389365816</v>
       </c>
       <c r="C46" t="n">
         <v>0.007099493065518891</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0001660342078806162</v>
+        <v>0.0001323226761530752</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -31782,13 +31782,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.006313937388195879</v>
+        <v>0.006344740833267028</v>
       </c>
       <c r="C48" t="n">
         <v>0.00690157819225251</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0005876408040566307</v>
+        <v>0.0005568373589854821</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -31803,13 +31803,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.006573942443605742</v>
+        <v>0.006605829052723568</v>
       </c>
       <c r="C49" t="n">
         <v>0.006854175035868006</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0002802325922622645</v>
+        <v>0.0002483459831444379</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -31824,13 +31824,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.006220723369370863</v>
+        <v>0.006251101121857158</v>
       </c>
       <c r="C50" t="n">
         <v>0.006663223338115733</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0004424999687448698</v>
+        <v>0.0004121222162585744</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -31866,13 +31866,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.005253949061804662</v>
+        <v>0.00527873076866099</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.005253949061804662</v>
+        <v>-0.00527873076866099</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -31887,13 +31887,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.005726955830284989</v>
+        <v>0.005754787295856277</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.005726955830284989</v>
+        <v>-0.005754787295856277</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -31908,13 +31908,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.005404426827212017</v>
+        <v>0.00543082062939051</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.005404426827212017</v>
+        <v>-0.00543082062939051</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
